--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 9. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 9. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="31" customWidth="1" min="7" max="7"/>
     <col width="138" customWidth="1" min="8" max="8"/>
     <col width="105" customWidth="1" min="9" max="9"/>
-    <col width="36" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>BUCA-KOOP MAHALLESİ AHMET PRİŞTİNA BLV. NO:19/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>YILDIZ MAHALLESİ HOCA AHMET YESEVI CADDESI NO:32/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>BUCAKOOP MAHALLESİ 1407 SK. NO:1/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>AHMET TANER KIŞLALI MAHALLESİ 6800 SK. NO:4/B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>KAZIMDİRİK MAH. 166 SK. YASEMİN NO: 2A İÇ KAPI NO: Z BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>YENİMAHALLE MAHALLESİ 8045 SK. NO:37/1 B BLOK Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>İNKILAP MAH. 504 SK. NO: 30 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8790/5 SK. NO: 103 A/_ ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>BENGİLER MAHALLESİ ÜRKMEZ CAD. SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>FEVZİÇAKMAK MAHALLESİ OVACIK CD. NO:1 GÜMÜLDÜR / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>UĞUR MUMCU MAHALLESİ 5714/2 SK. NO:16/A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>YUNUS EMRE MAHALLESİ 4152/1 SK. NO:9 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>GÜLYAKA MAHALLESİ ESKİ İZMİR CAD. NO:210 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>YALI MAHALLESİ 6000 SK. NO: 82 ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/17 SOKAK NO:16/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>İSMET İNÖNÜ MAH. 2001 SK. NO: 72A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>EGEMENLİK MAH. ALP CAD. HALUK TEZCAN SİTESİ NO: 29 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>MANSUROĞLU MAH. 286/1 SK. NO: 13G BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>ÜMİT MAHALLESİ 7303 SOKAK NO: 33A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>YALI MAH. 6418 SK. MUZAFFER BEY NO: 73A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>YAYLACIK MAHALLESİ 184 SK. NO: 64A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ÇAMTEPE MAHALLESİ UYANIŞ SK. NO:21/A NARLIDERE/İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>ÇAMTEPE MAHALLESİ ÇELEBİ SK. NO: 1 /1A NARLIDERE/İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ALAÇATI MAHALLESİ 16032 SK. NO:3 E/E ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 1851 SK. NO:15/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ÇİFTLİK MAH. 19/1 SK. NO: 38 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>ALİ FUAT ERDEN MAH. ÖĞRETMEN RASİME ŞEYHOĞLU SK. NO: 250 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>UMUT MAH. ÖĞRETMEN RASİME ŞEYHOĞLU SK. NO: 191 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>YENİGÜN MAH. FEVZİPAŞA BUL. K. UFAK İŞHANI NO: 120B İÇ KAPI NO: B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>HİLAL MAH. İŞÇİLER CAD. NO: 47 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>BUCAOSB MAH. 3/20 SK. AFG MATBAA NO: 17 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>FAİK PAŞA MAH. ANAFARTALAR CAD. NO: 854 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>NAMIK KEMAL MAHALLESİ 413 SK. NO: 31 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>MUAMMER AKAR MAHALLESİ 287 SOK. NO:5/A DENİZMEN KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ERZENE MAHALLESİ 31 SK. NO:50/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>KARACAOĞLAN MAH. KEMALPAŞA CAD. BIZIM TOPTAN SATIŞ MAGAZALARI SİTESİ NO: 291B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>KÜLTÜR MAHALLESİ 1388 SK. NO: 5 B/5B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ÜNİVERSİTE MAH. 4208 SK. NO: 2/1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>EFELER MAHALLESİ 336 SK. NO: 18 B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>PAYAMLI MAH. KUŞADASI SEFERİHİSAR YOLU CAD. NO: 49 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CADDESİ NO:105/C KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>KEMALPAŞA MAHALLESİ 7407/2 SOKAK NO:13 PINARBAŞI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>KOZAĞAÇ MAHALLESİ UĞUR MUMCU CADDESI SÜLEYMAN BLOK NO: 94A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>SEVGİ MAHALLESİ 80 SOKAK NO: 22 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>GÜLBAHÇE MAHALLESİ 12099 SK. NO: 4 A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>ALTINTAŞ MAHALLESİ ESEN SK. NO:6 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>GÜLBAHÇE MAH. GÜLBAHÇE CAD. NO: 77 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>ÇAĞDAŞ MAHALLESİ DEDE KORKUT CADDESI PTT EVKA-1 ŞUBESİ Apt. NO: 3/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>YENİGÜN MAHALLESİ 222/49 SK. NO:2/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>MANAVKUYU MAHALLESİ 243 SOK. BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ İNÖNÜ CADDESI NO:51/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 909A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KEMALPAŞA MAH. İNÖNÜ CAD. NO: 19/1A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>NERGİZ MAH. GİRNE BUL. İNŞAAT NO: 95A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>KAZIMDİRİK MAHALLESİ ZAFER CADDESİ NO:3/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>BAHARİYE MAH. 1836 SK. TÜRKER NO: 26A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>FUAT EDİP BAKSİ MAHALLESİ 1639 SOK. NO:41/A BAYRAKLI BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GÜMÜLDÜR İZMİR CD. NO:157/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:103 OPTİMUM ALIŞVERİŞ MERKEZİ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>GÜVEN MAHALLESİ ONAT CADDESI NO:41/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>GÖRECE CUMHURİYET MAH. MUHTAR NİHAT SERTEL CAD. NO: 114A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>YILDIZ MAHALLESİ HOCA AHMET YESEVİ CAD. NO: 20/2 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>GÖKSU MAHALLESİ 690/9 SK. NO: 1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO: 11 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>MALTEPE MAH. 8109 SK. NO: 11A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. SUAT MANİSALI IŞ HANI NO: 36A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>MUSTAFA KEMAL ATATÜRK MAHALLESİ ULUCAK İZMİR CAD. NO: 44 A/0 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ILICA MAHALLESİ MİTHATPAŞA CD. MUSTAFA MANAV APT. SİT.NO:11 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>ATIFBEY MAH. ETİLER CAD. NO: 6B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>GAZİ MAH. KEMAL REİS CAD. NO: 25C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>HACI İSA MAHALLESİ SEVİNÇ SK. NO:5/B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 510 SOKAK NO:31/33/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>MUSALLA MAHALLESİ 1021 SOK NO:24/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ALAYBEY MAHALLESİ ŞEHİT ASIM AKSOY CADDESİ ESER BLOK NO: 43B İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>ÖZGÜR MAH. 3898 SK. NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>ÖZGÜR MAH. 3898 SK. NO: 1A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>ATIFBEY MAHALLESİ ÖNDER CD. NO:24/3A HASAN FEHİM BEY Apt. GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>MALTEPE MAHALLESİ 8107/2 SK. NO:2/A ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>İÇMELER MAHALLESİ İÇMELER CAD. URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>KORUTÜRK MAHALLESİ MİTHATPAŞA CAD. NO:233/B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CAD. NO:135 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ÇAMLIKULE MAHALLESİ 254/40 SK. SS.2.BUCA ALTINEVLER SİT. SS.2.BUCA ALTINEVLER APT. NO: 23 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>KARABAĞLAR MAH. 5760/8 SK. NO: 8A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>SARIYER MAHALLESİ 5757 SOKAK NO: 88A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>ADATEPE MAHALLESİ 63 SK. NO:17/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>ESENYALI MAH. İHSAN ALYANAK BUL. NO: 19A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO: 427 B KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>AKINCILAR MAHALLESİ 548 SK. NO:47 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>ULAMIŞ MAHALLESİ İZMİR CAD. NO:267/A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ŞİRİNTEPE MAH. 8412 SK. NO: 5A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 24 İÇ KAPI NO: 124 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>EVKA 3 MAH. 119/26 SK. NO: 27B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>YUNUS EMRE MAHALLESİ 7552 SOKAK NO:5 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>BARBAROS MAHALLESİ BURAK REIS CADDESİ NO:32/D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>BARBAROS MAHALLESİ BURAK REİS CAD. NO:32 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>BALATÇIK MAHALLESİ 8901 SOKAK NO:42/23 EGE SANAYİ SİTESİ ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>KAVAKLIDERE MAH. ANKARA CAD. NO: 278 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>ATIFBEY MAH. ÖNDER CAD. PEKER NO: 26C İÇ KAPI NO: C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>FATİH MAHALLESİ 1207 SOKAK NO:1/2 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>MERİÇ MAHALLESİ 5619 SK. NO: 1/- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>İNÖNÜ MAHALLESİ 677/19 SK. NO: 128/2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>BEGOS MAH. MAHALLESİ YAHYA KEMAL BEYATLI CD. NO:106 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO:4/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ATIFBEY MAH. ÖNDER CAD. PEKER BLOK NO: 26E İÇ KAPI NO: E GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>ATIFBEY MAH. MERTLER CAD. NO: 8/A İÇ KAPI NO: A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>FATİH MAHALLESİ 1207 SK. NO: 1 /2 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ÇUKURALTI MAHALLESİ ATATÜRK BULV. NO:103 ÖZDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2030 SK. NO: 5 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>DONANMACI MAHALLESİ 1732 SK. NO:9/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ATAŞEHİR MAHALLESİ 8010 SOKAK NO:6/C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7465 SK. NO:15/A/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>ATAŞEHİR MAHALLESİ NO:3 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>KÖYİÇİ MAHALLESİ ANADOLU CAD. NO: 866 B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>ZÜBEYDEHANIM MAHALLESİ 7532 SK. MANOLYA BLOK NO: 161A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>EV-KA 5 MAHALLESİ 8809 SK. NO:141/S ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8790/5 SK. C BLOK Apt. NO: 130 CCB ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7443 SK. NO: 2 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>CUMHURİYET MAHALLESİ 1595 SK. NO: 250 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>GÖKSU MAH. 682 SK. NO: 35 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>İNÖNÜ MAH. 677 SK. NO: 11A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>BOSTANLI MAHALLESİ İSMAİL SİVRİ SK. NO: 6 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 281 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO:9/D ÖZTIM IŞ MERKEZI Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>YELKİ MAHALLESİ ATATÜRK CADDESİ NO:2/B GÜZELBAHÇE GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>YALI MAHALLESİ 6523 SOKAK NO:32/F KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>FATİH MAHALLESİ EGE CAD. C BLOK Apt. NO: 39 /7 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ FORBES SK. NO: 112 A/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>MURAT REİS MAHALLESİ İNÖNÜ CADDESİ 177 SOKAK NO:88 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>MALTEPE MAHALLESİ 8109 SK. NO:11/A/0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ATIFBEY MAHALLESİ 6 SOKAK NO:26 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>KEMALPAŞA MAHALLESİ 7102 SOKAK NO:6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. AKYIL BLOK NO: 45A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>İSKELE MAH. İSKELE CAD. CUMHURİYET EKMEK UNLU MAMÜLLERİ NO: 16A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>RAFETPAŞA MAHALLESİ 5366 SOKAK NO:11 KAT:1 ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>YEŞİLOVA MAHALLESİ 4053 SOKAK GÜLEKSAN GIDA LTD.ŞTİ. SİTESİ NO: 80-82A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>RAFET PAŞA MAHALLESİ ABDİ İPEKÇİ CD. NO: 183A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>METİN OKTAY MAHALLESİ POLAT CAD. NO:260 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>BAHÇELERARASI MAHALLESİ MİTHATPAŞA CAD. NO:46/Z01 TESCO KİPA SİT. BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>ALPASLAN MAHALLESİ 1620/1 SOK. NO:36/B İNŞAAT BLOK BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ETİLER MAHALLESİ 1250 SOKAK NO:16 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>CELAL BAYAR MAHALLESİ 5152 SOK. NO: 35 A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>GÜZELYALI MAH. 60 SK. NO: 35 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>VATAN MAHALLESİ FARUK AKAR KARASU CADDESİ NO:118/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>CUMHURİYET MAHALLESİ 9600 SOKAK NO:7/C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CAD. NO:71/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>YEŞİLOVA MAHALLESİ 4109 SOKAK NO:18/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>GÜNALTAY MAH. 4712 SK. NO: 11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>BULGURCA MAH. 6828 SK. NO: 23 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>DEDEBAŞI MAH. ORDU BUL. MERT NO: 108 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>ÖRNEKKÖY MAH. BAŞ PEHLİVAN KARAALİ CAD. GÜNEŞ NO: 86A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>GÜLKAYA MAH. 531 SOK NO:288 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>YENİGÜN MAHALLESİ İSMAIL SIVRI BULVARİ NO:176 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>İNÖNÜ MAHALLESİ TURGUT REİS CD. NO:10/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>İNÖNÜ MAHALLESİ HÜRRİYET CAD. NO: 104 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>DOĞANLAR MAHALLESİ 1517 SK. NO: 1 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>GÜZELYALI MAH. MİTHATPAŞA CAD. NO: 1025-1E KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>DEDEBAŞI MAH. ORDU BUL. EYÜP BEY NO: 92B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>NERGİZ MAH. 1671 SK. HOŞER NO: 152C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>KURUÇEŞME MAHALLESİ 1401 SK. NO:2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>ÇAMLIKULE MAHALLESİ 254 SK. NO:144/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>ATAŞEHİR MAH. 8001 SK. NO: 54A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. OPET BLOK NO: 8B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>ATİLLA MAHALLESİ 464 SK. NO:22/A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>SIĞACIK MAHALLESİ LİMAN CAD. NO:1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>ERGENE MAHALLESİ 538 SK. NO:25 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>KONAK MAHALLESİ MUSTAFA KEMAL SAHİL BULV. NO:8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>TURGUT REİS MAHALLESİ ŞEHİT NİHAT BEY CAD. NO:76/A KARATAŞ KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>YAYLACIK MAH. GAZİ OSMAN PAŞA CAD. NO: 162A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>FAHRETTİN ALTAY MAHALLESİ NO:2/A/A 65/11 SK KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>ÇINAR MAH. 5006 SK. NO: 1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>YILDIRIMBEYAZIT MAHALLESİ 5111 SOKAK NO:21/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>GAZİ OSMAN PAŞA MAHALLESİ 5227 SK. NO: 56A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO: 72A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>EGEMENLİK MAHALLESİ 6095 SK. NO: 13 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ALAÇATI MAHALLESİ 13080 SOK. NO:12 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>YUNUS EMRE MAHALLESİ YEŞİLLİK CADDESİ NO:400 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>ÖRNEKKÖY MAH. GİRNE BUL. NO: 229A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>KAKLIÇ MAHALLESİ İZMİR CAD. NO:49 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>MURAT REİS MAHALLESİ 255 SOKAK NO: 15 B/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>KOZAĞAÇ MAH. ÖZMEN CAD. NO: 13A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>ERGENE MAHALLESİ KAZIM KARABEKİR CAD. NO: 14B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>KÖY İÇİ MAHALLESİ 8064 SK. NO:18/B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 26 İÇ KAPI NO: 308 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>REİS MAH. 9116 SK. ACAR NO: 22A İÇ KAPI NO: Z8 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>HÜRRİYET MAH. 494 SK. NO: 10A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ADATEPE MAHALLESİ 28/1 SOK. NO: 6A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>YENİGÜN MAHALLESİ FEVZİPAŞA BLV. NO: 152 C/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>DİCLE MAHALLESİ 854 SOKAK NO:50/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>KÖRFEZ MAHALLESİ 7379 SK. NO: 11 B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>ERZENE MAHALLESİ 75 SOKAK NO: 21 D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>ADALET MAHALLESİ 1594/28 SOK. NO:31/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>ZEYTİNLİK MAHALLESİ 1132 SOKAK NO: 21 A/21A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>KAHRAMANLAR MAHALLESİ 1418 SOKAK NO:38 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>8 EYLÜL MAHALLESİ İZMİR CAD. NO: 67 A/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>YENİGÜN MAHALLESİ GAZETECİ YAZAR İSMAİL BULVARI NO:120 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>FATİH MAHALLESİ 1213 SOKAK NO: 6A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>OSMANGAZİ MAH. 600 SK. NO: 26A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>OSMANGAZİ MAH. YAVUZ CAD. NO: 322E BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>MANSUROĞLU MAH. 273/1 SK. YAŞAR NO: 30 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>BAYRAKLI MAH. ORD. PROF. DR. EKREM AKURGAL SK. NO: 20A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>KAZIMDİRİK MAH. ANKARA CAD. BAHAR NO: 237B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>KAZIMDİRİK MAH. 364/1 SK. NO: 7/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>KASIMPAŞA MAHALLESİ 250 SOK. NO: 15 A/A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>SOĞUKKUYU MAHALLESİ BARIŞ CAD. NO: 163A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>POSTACILAR MAHALLESİ GİRNE BLV. NO: 262B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>DONANMACI MAHALLESİ 1732 SK. NO:3/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>ATAŞEHİR MAHALLESİ 8019/11 SK. GÜLEÇ APT. NO: 50 B ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>BARBAROS MAH. KUVA-İ MİLLİYE CAD. NO: 92A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>ŞEMİKLER MAHALLESİ 6295/3 SK. NO: 11 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>ÜMİT MAH. 1411/5 SK. BİRSEN AYDIN NO: 6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>KAZIM KARABEKİR MAHALLESİ 9015 SOKAK NO:9 YEŞİLYURT / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/11 SK. ANA HASTANE 1 NOLU BLOK NO: 3 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>KILIÇ REİS MAHALLESİ ŞÜKRÜ SARAÇOĞLU CAD. NO: 46 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>FATİH MAHALLESİ 1213 SOKAK NO: 6 A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>GÖKSU MAHALLESİ 682 SK. NO:35 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>ADATEPE MAHALLESİ ÖZBEKİSTAN CADDESİ NO:18/C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>HÜRRİYET MAH. MENDERES CAD. USTAOĞLU BLOK NO: 311B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>YALI MAH. 6523 SK. NO: 32CB KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>R.ŞEVKET İNCE MAH. 2167 SK. NO: 36A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>ATIFBEY MAHALLESİ AKÇAY CADDESİ NO:246 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>OVACIK MAH. 7000 SK. NO: 71A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>SOĞUKKUYU MAH. GİRNE BUL. FİKRET HANIM NO: 244A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CAD. SAFA BLOK NO: 145D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>CAMİKEBİR MAHALLESİ SANAYİ 12. SOKAK NO:5 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>HÜRRİYET MAHALLESİ MENDERES CADDESİ NO:301 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>BAYRAKLI MAHALLESİ 1916 SOK. UMUT 2 BLOK NO: 8A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>GÜNEY MAHALLESİ 1148 SOKAK NO: 8C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>GÜLYAKA MAH. 3033 SK. NO: 1 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>TURGUT REİS MAHALLESİ HALİL RIFATPAŞA CAD. NO: 252 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>GONCALAR MAHALLESİ 6028 SK. GÜLLEOĞLU BLOK NO: 2A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>RAFETPAŞA MAHALLESİ BURAK REİS CAD. NO:238/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>CUMHURİYET MAHALLESİ 4202 SK. NO:9/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>16 EYLÜL MAHALLESİ 3001 SOK. NO:13 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>KARABAĞLAR MAHALLESİ 5760 SK. NO: 32/ KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>ANADOLU MAHALLESİ 2438 SOKAK NO:2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>BAHÇELİEVLER MAH. GÜN SAZAK BUL. CENTAŞ BLOK NO: 50B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>BAHARİYE MAHALLESİ HİDAYET ERZEYBEK CAD. ÇAM Apt. NO: 73 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>MENDERES MAHALLESİ 154 SK. NO: 7 A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>ŞİRİNKAPI MAHALLESİ YAVUZ SULTAN SELİM CAD. NO: 98A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>MANAVKUYU MAHALLESİ 275/2 SOKAK NO:12/F BAYRAKLI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>CUMHURİYET MAHALLESİ 9600 SOKAK B- BLOK NO: 4-1A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>HÜRRİYET MAHALLESİ GAZİ ATATÜRK SK NO:6 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>GAZİ MAHALLESİ 25 SK. NO: 29A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>BARIŞ MAH. 4692 SK. NO: 16 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>ULAMIŞ MAH. 75. YIL CUMHURİYET CAD. NO: 57 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>ILICA MAHALLESİ YILDIZBURNU BLV.5074 SK. NO: 22 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>YUNUS EMRE MAH. 4177 SK. NO: 32A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>KÜLTÜR MAHALLESİ MEKSİKA SOKAK KUĞU BLOK NO: 13C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>REFET BELE MAH. ESKİİZMİR CAD. NO: 356A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>KÜLTÜR MAH. ATATÜRK CAD. NO: 186/2A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>FAHRETTİN ALTAY MAHALLESİ MİTHATPAŞA CAD. HALİL BEY Sit. HALİL BEY Apt. NO: 1163 A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>BOSTANLI MAHALLESİ BESTEKAR YUSUF NALKESEN SK. NO: 14 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>AKINCILAR MAHALLESİ 548 SK. NO: 33 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>ŞEMİKLER MAHALLESİ CENGİZ TOPEL CD. NO:16/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI ŞARKSAN BLOK NO: 75C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>ERZENE MAHALLESİ 62. SOKAK SIR BLOK NO: 2C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>FIRAT MAHALLESİ 272/9 SK. NO:1/A KIZIL KANAT SİTESİ BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>KEMALPAŞA OSB MAH. 606 SK. NO: 4 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>ULUCAK CUMHURİYET MAH. 9075 SK. NO: 12 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>HIDIRLIK MAHALLESİ ATATÜRK CADDESI NO:202 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. NO: 67 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>VATAN MAHALLESİ FARUK AKAR KARASU CADDESİ NO:7/A YEŞİLYURT KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>VALİ RAHMİBEY MAHALLESİ MENDERES CAD. FİLİZ BLOK NO: 135A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>ÇİFTLİK MAHALLESİ NO:9/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>DALYAN MAHALLESİ 4178 SOKAK NO:2/4 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>ULAMIŞ MAHALLESİ ÇEŞME CD. NO: 17 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>İNÖNÜ MAHALLESİ 689/6 SK. NO: 25A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>MİMAR SİNAN MAH. ZİYA GÖKALP BUL. NO: 36 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>GAZİ MAHALLESİ ÖNDER CD NO:93/D GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>ILICA MAHALLESİ EYÜP SOKAK NO:22/A YENİKÖY NARLIDERE/İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>YILDIZ MAHALLESİ HOCA AHMET YESEVI CADDESI NO:20/2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>TUNA MAH. SALAH BİRSEL SK. NO: 25/1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>ATİLLA MAHALLESİ 464 SOKAK NO:82/A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13790,11 +12404,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/1B65 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13838,11 +12447,6 @@
           <t>ERZENE MAHALLESİ FEVZİ ÇAKMAK CAD. NO: 5 E BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13886,11 +12490,6 @@
           <t>METİN OKTAY MAHALLESİ 52/93 SOKAK NO:17/A / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13934,11 +12533,6 @@
           <t>ADATEPE MAHALLESİ 3 SK. NO: 40 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13982,11 +12576,6 @@
           <t>KOCATEPE MAH. EŞREFPAŞA CAD. NO: 299-305A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14030,11 +12619,6 @@
           <t>ZAFERTEPE MAHALLESİ YEŞİLLİK CADDESİ NO:59/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14078,11 +12662,6 @@
           <t>ALTINTAŞ MAHALLESİ İNÖNÜ CADDESİ NO:70/B-C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14126,11 +12705,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1 -/102- BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14174,11 +12748,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8790/5 SK. NO:63/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14222,11 +12791,6 @@
           <t>AKIN SİMAV MAHALLESİ ŞEHİT NİHAT BEY CADDESİ NO:205 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14270,11 +12834,6 @@
           <t>OSMANGAZİ MAHALLESİ 582 SOK. NO:42/C BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14318,11 +12877,6 @@
           <t>SOĞUKPINAR MAHALLESİ TÜRK OCAĞI CAD. KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14366,11 +12920,6 @@
           <t>İNÖNÜ MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BLV. NO: 474 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14414,11 +12963,6 @@
           <t>SERİNTEPE MAHALLESİ KEMALPAŞA CADDESI NO:64/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14462,11 +13006,6 @@
           <t>POSTACILAR MAHALLESİ GİRNE BLV. NO:260/D BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14510,11 +13049,6 @@
           <t>MEHMET AKİF ERSOY MAH. İNÖNÜ CAD. NO: 29A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14558,11 +13092,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI SAĞLIK BLOK NO: 137B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14606,11 +13135,6 @@
           <t>RAFET PAŞA MAH. ABDİ İPEKÇİ CAD. NO: 190B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14654,11 +13178,6 @@
           <t>EVKA 3 MAH. 110 SK. KORHAN BERBEROĞLU SİTESİ NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14702,11 +13221,6 @@
           <t>CENGİZHAN MAHALLESİ 1620/12 SK. NO:86/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14750,11 +13264,6 @@
           <t>BUCAOSB MAH. YAHYA KEMAL BEYATLI CAD. BEGOS SİTESİ NO: 138 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14798,11 +13307,6 @@
           <t>YENİGÜN MAHALLESİ 265/8 SK. NO:4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14846,11 +13350,6 @@
           <t>BAHARİYE MAHALLESİ HİDAYET ERZEYBEK SOK. NO:63/B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14894,11 +13393,6 @@
           <t>FAHRETTİN ALTAY MAH. 65/11 SK. ALTAY NO: 10A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14942,11 +13436,6 @@
           <t>BOSTANLI MAH. ŞEHİTLER BUL. ÖNTAN NO: 9A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14990,11 +13479,6 @@
           <t>MUAMMER AKAR MAH. İNÖNÜ CAD. SEREN NO: 819B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15038,11 +13522,6 @@
           <t>SOĞUKPINAR MAHALLESİ HÜKÜMET CAD. NO: 14 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15086,11 +13565,6 @@
           <t>ALTINTAŞ MAHALLESİ HALİL RIFATPAŞA CADDESİ NO: 193A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15134,11 +13608,6 @@
           <t>YUNUS EMRE MAHALLESİ SIRRI ATALAY SK. NO:42/2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15182,11 +13651,6 @@
           <t>KAZIM KARABEKİR MAH. TÜRBE CAD. NO: 41 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15230,11 +13694,6 @@
           <t>YİĞİTLER MAHALLESİ FEVZI ÇAKMAK CADDESI NO:64/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15278,11 +13737,6 @@
           <t>İNÖNÜ MAHALLESİ 9 EYLÜL CADDESİ NO:15/1A DAİRE:1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15326,11 +13780,6 @@
           <t>KÖY İÇİ MAHALLESİ 8061 SK. NO:23 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15374,11 +13823,6 @@
           <t>IRMAK MAHALLESİ METİN HENKOĞLU NO:10 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15422,11 +13866,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SK. NO:72 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15470,11 +13909,6 @@
           <t>KORUTÜRK MAHALLESİ ŞİMŞEK SK. ÖZBEK SİT. NO: 24 A BALÇOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15518,11 +13952,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO:101 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15566,11 +13995,6 @@
           <t>GÜNALTAY MAHALLESİ 4095 SK. NO:121 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15614,11 +14038,6 @@
           <t>YAYLACIK MAHALLESİ GAZİ OSMANPAŞA CADDESİ NO: 228 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15662,11 +14081,6 @@
           <t>YILDIRIMBEYAZIT MAHALLESİ YILDIRIM BEYAZIT CAD. NO:78/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15710,11 +14124,6 @@
           <t>ALSANCAK MAH. 1466 SK. NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15758,11 +14167,6 @@
           <t>ALSANCAK MAH. 1464 SK. KARA NO: 21A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15806,11 +14210,6 @@
           <t>KASIMPAŞA MAHALLESİ 250 SOK. NO:31/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15854,11 +14253,6 @@
           <t>OSMANGAZİ MAH. 579 SK. NO: 50A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15900,11 +14294,6 @@
       <c r="I322" s="2" t="inlineStr">
         <is>
           <t>SEVGİ MAHALLESİ 663 SOKAK NO:6/103 T 4 İŞ MERKEZİ Apt. GAZİEMİR / İZMİR</t>
-        </is>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>09 - EKMEK VE UNLU MAMÜLLER GRUBU</t>
         </is>
       </c>
     </row>
